--- a/wcsm8seleniumproject/data/TestData.xlsx
+++ b/wcsm8seleniumproject/data/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saraa\eclipse-workspace\wcsm8\wcsm8seleniumproject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saraa\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D720AC0-A213-4F5B-B8A3-CCBEEFFAD40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{722753DD-4FB2-4BB0-83C7-29AD856A9EE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{25C87A0A-6CDC-4D15-99D9-FEE17E5DCC3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3990" xr2:uid="{9D623CBC-0945-4D74-A07F-16D694BAD820}"/>
   </bookViews>
   <sheets>
     <sheet name="IPL" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TEAM</t>
   </si>
   <si>
-    <t>CAPTAIN</t>
+    <t>CAPTAINS</t>
   </si>
   <si>
     <t>CSK</t>
@@ -53,22 +45,52 @@
     <t>ROHIT</t>
   </si>
   <si>
+    <t>RCB</t>
+  </si>
+  <si>
+    <t>VIRAT</t>
+  </si>
+  <si>
+    <t>LSG</t>
+  </si>
+  <si>
+    <t>KL RAHUL</t>
+  </si>
+  <si>
     <t>GT</t>
   </si>
   <si>
-    <t>PANDYA</t>
-  </si>
-  <si>
-    <t>LSG</t>
-  </si>
-  <si>
-    <t>KUNAL</t>
+    <t>HARDIK</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>RANA</t>
   </si>
   <si>
     <t>SRH</t>
   </si>
   <si>
+    <t>B KUMAR</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
     <t>WARNER</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>SANJU</t>
+  </si>
+  <si>
+    <t>PUNJAB</t>
+  </si>
+  <si>
+    <t>S DHAVAN</t>
   </si>
 </sst>
 </file>
@@ -118,9 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,14 +461,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83163706-6EE4-4B5D-BDF1-B30ADC6E5737}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACDEDB8-9FC0-40FE-9421-F35F355D35D2}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -452,43 +483,83 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
